--- a/Planificacion4semanas.xlsx
+++ b/Planificacion4semanas.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvan\Documents\Planificacion 4 semanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B97DE-0C89-4EA3-BECE-14B92779A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4283E5-6D78-4422-9ACB-363712EB07FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planificación diaria" sheetId="1" r:id="rId1"/>
-    <sheet name="Planificación diaria 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planificación diaria 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Planificación diaria 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Primer semana" sheetId="1" r:id="rId1"/>
+    <sheet name="Seugunda semana" sheetId="2" r:id="rId2"/>
+    <sheet name="Tercer semana" sheetId="3" r:id="rId3"/>
+    <sheet name="Cuarta semana" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="11">
   <si>
     <t xml:space="preserve">
 PLANIFICACIÓN DIARIA</t>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Compromiso</t>
+  </si>
+  <si>
+    <t>Cita</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +222,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -309,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,11 +409,50 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -871,116 +928,116 @@
   </dxfs>
   <tableStyles count="28">
     <tableStyle name="Planificación diaria-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="firstRowStripe" dxfId="58"/>
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Planificación diaria-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="firstRowStripe" dxfId="56"/>
       <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Planificación diaria-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="firstRowStripe" dxfId="54"/>
       <tableStyleElement type="secondRowStripe" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Planificación diaria-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
       <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Planificación diaria-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
       <tableStyleElement type="firstRowStripe" dxfId="50"/>
       <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Planificación diaria 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="firstRowStripe" dxfId="48"/>
       <tableStyleElement type="secondRowStripe" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="Planificación diaria 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
       <tableStyleElement type="firstRowStripe" dxfId="46"/>
       <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="Planificación diaria 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
       <tableStyleElement type="firstRowStripe" dxfId="44"/>
       <tableStyleElement type="secondRowStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+    <tableStyle name="Planificación diaria 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
+    <tableStyle name="Planificación diaria 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
       <tableStyleElement type="firstRowStripe" dxfId="40"/>
       <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
+    <tableStyle name="Planificación diaria 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
       <tableStyleElement type="firstRowStripe" dxfId="38"/>
       <tableStyleElement type="secondRowStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
+    <tableStyle name="Planificación diaria 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
       <tableStyleElement type="firstRowStripe" dxfId="36"/>
       <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
+    <tableStyle name="Planificación diaria 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
       <tableStyleElement type="firstRowStripe" dxfId="34"/>
       <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
+    <tableStyle name="Planificación diaria 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
       <tableStyleElement type="firstRowStripe" dxfId="32"/>
       <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
+    <tableStyle name="Planificación diaria 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
       <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
+    <tableStyle name="Planificación diaria 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
       <tableStyleElement type="firstRowStripe" dxfId="28"/>
       <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
+    <tableStyle name="Planificación diaria 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
       <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
+    <tableStyle name="Planificación diaria 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
       <tableStyleElement type="firstRowStripe" dxfId="24"/>
       <tableStyleElement type="secondRowStripe" dxfId="23"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
+    <tableStyle name="Planificación diaria 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
       <tableStyleElement type="firstRowStripe" dxfId="22"/>
       <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
+    <tableStyle name="Planificación diaria 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
       <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
+    <tableStyle name="Planificación diaria 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
       <tableStyleElement type="firstRowStripe" dxfId="18"/>
       <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
+    <tableStyle name="Planificación diaria 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
       <tableStyleElement type="firstRowStripe" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
+    <tableStyle name="Planificación diaria 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
+    <tableStyle name="Planificación diaria 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
       <tableStyleElement type="firstRowStripe" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
+    <tableStyle name="Planificación diaria 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
       <tableStyleElement type="firstRowStripe" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
+    <tableStyle name="Planificación diaria 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1196,16 +1253,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10:E11" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="I18" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="I18:I22" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1"/>
   </tableColumns>
@@ -1454,7 +1511,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1698,8 +1755,8 @@
       <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>5</v>
+      <c r="E10" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>7</v>
@@ -1726,8 +1783,8 @@
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
+      <c r="E11" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>7</v>
@@ -1819,8 +1876,8 @@
       <c r="G14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>8</v>
+      <c r="H14" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>5</v>
@@ -1847,11 +1904,11 @@
       <c r="G15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>5</v>
+      <c r="H15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -1875,8 +1932,8 @@
       <c r="G16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>8</v>
+      <c r="H16" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>8</v>
@@ -1903,8 +1960,8 @@
       <c r="G17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>8</v>
+      <c r="H17" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>8</v>
@@ -1931,11 +1988,11 @@
       <c r="G18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>5</v>
+      <c r="H18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -1959,11 +2016,11 @@
       <c r="G19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>5</v>
+      <c r="H19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -1987,11 +2044,11 @@
       <c r="G20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>5</v>
+      <c r="H20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="25"/>
     </row>
@@ -2007,10 +2064,12 @@
       <c r="G21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="17"/>
+      <c r="H21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
@@ -2025,10 +2084,12 @@
       <c r="G22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="17"/>
+      <c r="H22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
@@ -2043,8 +2104,8 @@
       <c r="G23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>8</v>
+      <c r="H23" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="18"/>
@@ -2061,8 +2122,8 @@
       <c r="G24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>8</v>
+      <c r="H24" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
@@ -2734,7 +2795,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3388,7 +3449,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3412,7 +3473,9 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4042,7 +4105,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion4semanas.xlsx
+++ b/Planificacion4semanas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvan\Documents\Planificacion 4 semanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4283E5-6D78-4422-9ACB-363712EB07FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65463DF6-BF4B-4A2F-BD6C-C05D6050F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer semana" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,11 +323,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +410,13 @@
     <xf numFmtId="168" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -409,18 +425,187 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FFF3F3F3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FFF3F3F3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -450,30 +635,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,116 +1089,116 @@
   </dxfs>
   <tableStyles count="28">
     <tableStyle name="Planificación diaria-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="71"/>
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
     <tableStyle name="Planificación diaria-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
-      <tableStyleElement type="secondRowStripe" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="55"/>
+      <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
-      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Planificación diaria 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1135,9 +1296,9 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_18" displayName="Table_18" ref="E10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_18" displayName="Table_18" ref="E10:E11" headerRowCount="0" dataDxfId="0" tableBorderDxfId="2">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 3-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1162,15 +1323,6 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table_20" displayName="Table_20" ref="E19" headerRowCount="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="Planificación diaria 3-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table_21" displayName="Table_21" ref="G20" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Column1"/>
@@ -1179,7 +1331,25 @@
 </table>
 </file>
 
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{5358718E-666E-4E7F-9C29-BD49A30ACE0D}" name="Table_2130" displayName="Table_2130" ref="G14" headerRowCount="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C169F898-DB3F-4A59-ACF8-7868D6F300FF}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="Planificación diaria 3-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{429A3104-6BDF-46A0-B229-614BD861D117}" name="Table_2131" displayName="Table_2131" ref="E19:E20" headerRowCount="0" dataDxfId="5" tableBorderDxfId="7">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CF5BFF5C-4A03-48AC-AB02-66B07EC8EF9C}" name="Column1" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Planificación diaria 3-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table_22" displayName="Table_22" ref="C5:D7" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Column1"/>
@@ -1189,7 +1359,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table_23" displayName="Table_23" ref="F5:F7" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Column1"/>
@@ -1198,7 +1368,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table_24" displayName="Table_24" ref="I6" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1"/>
@@ -1207,7 +1377,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table_25" displayName="Table_25" ref="E10" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1"/>
@@ -1216,7 +1386,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table_26" displayName="Table_26" ref="I18" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Column1"/>
@@ -1225,7 +1395,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table_27" displayName="Table_27" ref="E19" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1"/>
@@ -1234,7 +1404,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table_28" displayName="Table_28" ref="G20" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Column1"/>
@@ -1253,9 +1423,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10:E11" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10:E11" headerRowCount="0" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,7 +1680,7 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1524,11 +1694,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1544,12 +1714,12 @@
       <c r="C2" s="6">
         <v>44970</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -1755,7 +1925,7 @@
       <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="23" t="s">
@@ -1783,7 +1953,7 @@
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -1876,7 +2046,7 @@
       <c r="G14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -1904,7 +2074,7 @@
       <c r="G15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="24" t="s">
@@ -1932,7 +2102,7 @@
       <c r="G16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="24" t="s">
@@ -1960,7 +2130,7 @@
       <c r="G17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="24" t="s">
@@ -1988,7 +2158,7 @@
       <c r="G18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="24" t="s">
@@ -2016,7 +2186,7 @@
       <c r="G19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="24" t="s">
@@ -2044,7 +2214,7 @@
       <c r="G20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="24" t="s">
@@ -2064,7 +2234,7 @@
       <c r="G21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="24" t="s">
@@ -2084,10 +2254,10 @@
       <c r="G22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="18"/>
@@ -2104,7 +2274,7 @@
       <c r="G23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="17"/>
@@ -2122,7 +2292,7 @@
       <c r="G24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="17"/>
@@ -2177,11 +2347,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2197,12 +2367,12 @@
       <c r="C2" s="6">
         <v>44977</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -2795,7 +2965,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2819,7 +2989,9 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2831,11 +3003,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2851,12 +3023,12 @@
       <c r="C2" s="6">
         <v>44984</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -2930,14 +3102,14 @@
       <c r="B5" s="14">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
+      <c r="C5" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
+      <c r="E5" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>3</v>
@@ -2952,14 +3124,14 @@
       <c r="B6" s="19">
         <v>0.25</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>2</v>
+      <c r="E6" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>4</v>
@@ -2976,8 +3148,8 @@
       <c r="B7" s="14">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>5</v>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>4</v>
@@ -3000,8 +3172,8 @@
       <c r="B8" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>5</v>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>6</v>
@@ -3015,8 +3187,8 @@
       <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>2</v>
+      <c r="H8" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>5</v>
@@ -3043,8 +3215,8 @@
       <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>2</v>
+      <c r="H9" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>5</v>
@@ -3059,11 +3231,11 @@
       <c r="C10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>5</v>
+      <c r="D10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>7</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>7</v>
@@ -3090,8 +3262,8 @@
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
+      <c r="E11" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>7</v>
@@ -3180,8 +3352,8 @@
       <c r="F14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>7</v>
+      <c r="G14" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>8</v>
@@ -3289,8 +3461,8 @@
       <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>2</v>
+      <c r="F18" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>8</v>
@@ -3314,11 +3486,11 @@
       <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>2</v>
+      <c r="E19" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>8</v>
@@ -3339,14 +3511,14 @@
       <c r="C20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>5</v>
+      <c r="D20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>5</v>
@@ -3448,13 +3620,28 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+  <conditionalFormatting sqref="I6:I15 H13 I18:I20 G20:G24 E6:E7 C6">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="3">
+      <formula>LEN(TRIM(M14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+      <formula>LEN(TRIM(K5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(I5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3462,6 +3649,7 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3487,11 +3675,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3507,12 +3695,12 @@
       <c r="C2" s="6">
         <v>44991</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -4105,7 +4293,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion4semanas.xlsx
+++ b/Planificacion4semanas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvan\Documents\Planificacion 4 semanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65463DF6-BF4B-4A2F-BD6C-C05D6050F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2B0C5-B0CD-44D8-BB19-0A60248258DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer semana" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="11">
   <si>
     <t xml:space="preserve">
 PLANIFICACIÓN DIARIA</t>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +417,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -425,20 +434,17 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="86">
     <dxf>
       <font>
         <b val="0"/>
@@ -501,22 +507,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -566,6 +556,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
         <right style="thin">
           <color rgb="FFD9D9D9"/>
         </right>
@@ -583,6 +576,239 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FFF3F3F3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FFF3F3F3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFD9D9D9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD9D9D9"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FFF3F3F3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
@@ -1089,116 +1315,116 @@
   </dxfs>
   <tableStyles count="28">
     <tableStyle name="Planificación diaria-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="77"/>
+      <tableStyleElement type="secondRowStripe" dxfId="76"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="75"/>
+      <tableStyleElement type="secondRowStripe" dxfId="74"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
+    </tableStyle>
+    <tableStyle name="Planificación diaria 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Planificación diaria 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Planificación diaria 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Planificación diaria 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Planificación diaria 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Planificación diaria 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="Planificación diaria 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="Planificación diaria 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+    <tableStyle name="Planificación diaria 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
+    <tableStyle name="Planificación diaria 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
+    <tableStyle name="Planificación diaria 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
+    <tableStyle name="Planificación diaria 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
+    <tableStyle name="Planificación diaria 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 2-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
+    <tableStyle name="Planificación diaria 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
+    <tableStyle name="Planificación diaria 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
+    <tableStyle name="Planificación diaria 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
+    <tableStyle name="Planificación diaria 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
+    <tableStyle name="Planificación diaria 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
+    <tableStyle name="Planificación diaria 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
+    <tableStyle name="Planificación diaria 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Planificación diaria 3-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
+    <tableStyle name="Planificación diaria 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="secondRowStripe" dxfId="22"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
-    </tableStyle>
-    <tableStyle name="Planificación diaria 4-style 7" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1296,18 +1522,18 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_18" displayName="Table_18" ref="E10:E11" headerRowCount="0" dataDxfId="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table_18" displayName="Table_18" ref="E10:E11" headerRowCount="0" dataDxfId="20" tableBorderDxfId="19">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 3-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table_19" displayName="Table_19" ref="I18" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table_19" displayName="Table_19" ref="I18:I20" headerRowCount="0" dataDxfId="0" tableBorderDxfId="2">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 3-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1341,9 +1567,9 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{429A3104-6BDF-46A0-B229-614BD861D117}" name="Table_2131" displayName="Table_2131" ref="E19:E20" headerRowCount="0" dataDxfId="5" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{429A3104-6BDF-46A0-B229-614BD861D117}" name="Table_2131" displayName="Table_2131" ref="E19:E20" headerRowCount="0" dataDxfId="17" tableBorderDxfId="16">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CF5BFF5C-4A03-48AC-AB02-66B07EC8EF9C}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CF5BFF5C-4A03-48AC-AB02-66B07EC8EF9C}" name="Column1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 3-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1378,9 +1604,9 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table_25" displayName="Table_25" ref="E10" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table_25" displayName="Table_25" ref="E10:E11" headerRowCount="0" dataDxfId="3" tableBorderDxfId="5">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 4-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,9 +1622,9 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table_27" displayName="Table_27" ref="E19" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table_27" displayName="Table_27" ref="E19:E22" headerRowCount="0" dataDxfId="7" tableBorderDxfId="9">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria 4-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1422,10 +1648,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AEE1B1F2-0735-4AB3-B1BF-11E6186DADD0}" name="Table_2321" displayName="Table_2321" ref="G5:G7" headerRowCount="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1721877E-D160-464D-A13A-5D1C31D1DD37}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="Planificación diaria 4-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10:E11" headerRowCount="0" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="E10:E11" headerRowCount="0" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Planificación diaria-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1694,11 +1929,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1714,12 +1949,12 @@
       <c r="C2" s="6">
         <v>44970</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -2347,11 +2582,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2367,12 +2602,12 @@
       <c r="C2" s="6">
         <v>44977</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -2965,7 +3200,7 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2989,8 +3224,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3003,11 +3238,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3023,12 +3258,12 @@
       <c r="C2" s="6">
         <v>44984</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -3218,8 +3453,8 @@
       <c r="H9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>5</v>
+      <c r="I9" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="J9" s="18"/>
     </row>
@@ -3231,10 +3466,10 @@
       <c r="C10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="23" t="s">
@@ -3246,8 +3481,8 @@
       <c r="H10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>5</v>
+      <c r="I10" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -3262,7 +3497,7 @@
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
@@ -3467,11 +3702,11 @@
       <c r="G18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>5</v>
+      <c r="H18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="J18" s="18"/>
     </row>
@@ -3486,7 +3721,7 @@
       <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="23" t="s">
@@ -3498,8 +3733,8 @@
       <c r="H19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>5</v>
+      <c r="I19" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="J19" s="18"/>
     </row>
@@ -3514,7 +3749,7 @@
       <c r="D20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -3526,8 +3761,8 @@
       <c r="H20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>5</v>
+      <c r="I20" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="J20" s="25"/>
     </row>
@@ -3620,23 +3855,23 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I15 H13 I18:I20 G20:G24 E6:E7 C6">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="I6:I8 H13 G20:G24 E6:E7 C6 I11:I15">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="4">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="3">
       <formula>LEN(TRIM(M14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="2">
       <formula>LEN(TRIM(K5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(I5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3661,8 +3896,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3675,11 +3910,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3695,12 +3930,12 @@
       <c r="C2" s="6">
         <v>44991</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
@@ -3774,19 +4009,21 @@
       <c r="B5" s="14">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
+      <c r="C5" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
+      <c r="E5" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
@@ -3796,19 +4033,21 @@
       <c r="B6" s="19">
         <v>0.25</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>2</v>
+      <c r="E6" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="21" t="s">
         <v>5</v>
@@ -3832,7 +4071,9 @@
       <c r="F7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="21" t="s">
         <v>5</v>
@@ -3844,8 +4085,8 @@
       <c r="B8" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>5</v>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>6</v>
@@ -3872,8 +4113,8 @@
       <c r="B9" s="19">
         <v>0.375</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>3</v>
+      <c r="C9" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>6</v>
@@ -3900,20 +4141,20 @@
       <c r="B10" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>5</v>
+      <c r="C10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>7</v>
+      <c r="G10" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>7</v>
@@ -3928,20 +4169,20 @@
       <c r="B11" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>4</v>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
+      <c r="E11" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>7</v>
+      <c r="G11" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>7</v>
@@ -3956,8 +4197,8 @@
       <c r="B12" s="19">
         <v>0.5</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>6</v>
+      <c r="C12" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>6</v>
@@ -3984,8 +4225,8 @@
       <c r="B13" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>6</v>
+      <c r="C13" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>6</v>
@@ -4012,8 +4253,8 @@
       <c r="B14" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>6</v>
+      <c r="C14" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>6</v>
@@ -4040,14 +4281,14 @@
       <c r="B15" s="19">
         <v>0.625</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>6</v>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>7</v>
+      <c r="E15" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>6</v>
@@ -4068,14 +4309,14 @@
       <c r="B16" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>6</v>
+      <c r="C16" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>7</v>
+      <c r="E16" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>4</v>
@@ -4096,8 +4337,8 @@
       <c r="B17" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>4</v>
+      <c r="C17" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>4</v>
@@ -4124,8 +4365,8 @@
       <c r="B18" s="19">
         <v>0.75</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>4</v>
+      <c r="C18" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>2</v>
@@ -4152,14 +4393,14 @@
       <c r="B19" s="14">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>7</v>
+      <c r="C19" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>5</v>
+      <c r="E19" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>2</v>
@@ -4180,17 +4421,17 @@
       <c r="B20" s="14">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>7</v>
+      <c r="C20" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>5</v>
+      <c r="E20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>5</v>
@@ -4210,8 +4451,12 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="21" t="s">
         <v>5</v>
       </c>
@@ -4228,8 +4473,12 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="21" t="s">
         <v>5</v>
       </c>
@@ -4292,13 +4541,38 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I15 C7:C8 E7 E10:E11 H13 I18:I20 E19:E20 D20 F20 G20:G24">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I6:I15 H13 I18:I20 G20:G24 C6:C7 C20:D20 E6:E7">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="6">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+      <formula>LEN(TRIM(I5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
+      <formula>LEN(TRIM(I19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
+      <formula>LEN(TRIM(I18))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="2">
+      <formula>LEN(TRIM(I17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(K5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4306,6 +4580,7 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>